--- a/XAutomateMVC/TestCases/sl_5.xlsx
+++ b/XAutomateMVC/TestCases/sl_5.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <x:si>
+    <x:t>TC Id</x:t>
+  </x:si>
   <x:si>
     <x:t>Test Approach</x:t>
   </x:si>
@@ -22,6 +25,9 @@
     <x:t>Rule Name</x:t>
   </x:si>
   <x:si>
+    <x:t>TestCae Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Schema</x:t>
   </x:si>
   <x:si>
@@ -58,6 +64,12 @@
     <x:t>Expected Value</x:t>
   </x:si>
   <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535</x:t>
+  </x:si>
+  <x:si>
     <x:t>Core-Semantic_attribute_mapping</x:t>
   </x:si>
   <x:si>
@@ -70,7 +82,7 @@
     <x:t>Employee</x:t>
   </x:si>
   <x:si>
-    <x:t>employee_ID</x:t>
+    <x:t>Employee_ID</x:t>
   </x:si>
   <x:si>
     <x:t>SEMANTIC</x:t>
@@ -89,6 +101,9 @@
   </x:si>
   <x:si>
     <x:t>Row Count Is 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>536</x:t>
   </x:si>
   <x:si>
     <x:t>last_name</x:t>
@@ -155,23 +170,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="sl_5" displayName="sl_5" ref="A1:N3" totalsRowShown="0">
-  <x:autoFilter ref="A1:N3"/>
-  <x:tableColumns count="14">
-    <x:tableColumn id="1" name="Test Approach"/>
-    <x:tableColumn id="2" name="Rule Name"/>
-    <x:tableColumn id="3" name="Schema"/>
-    <x:tableColumn id="4" name="Table_name"/>
-    <x:tableColumn id="5" name="Column_Name"/>
-    <x:tableColumn id="6" name="Schema1"/>
-    <x:tableColumn id="7" name="Table_name2"/>
-    <x:tableColumn id="8" name="Column_Name3"/>
-    <x:tableColumn id="9" name="Value"/>
-    <x:tableColumn id="10" name="Column_Name4"/>
-    <x:tableColumn id="11" name="Column_Name5"/>
-    <x:tableColumn id="12" name="Column_Name6"/>
-    <x:tableColumn id="13" name="Expected Result"/>
-    <x:tableColumn id="14" name="Expected Value"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="sl_5" displayName="sl_5" ref="A1:Q3" totalsRowShown="0">
+  <x:autoFilter ref="A1:Q3"/>
+  <x:tableColumns count="17">
+    <x:tableColumn id="1" name="TC Id"/>
+    <x:tableColumn id="2" name="Test Approach"/>
+    <x:tableColumn id="3" name="Rule Name"/>
+    <x:tableColumn id="4" name="TestCae Name"/>
+    <x:tableColumn id="5" name="Schema"/>
+    <x:tableColumn id="6" name="Table_name"/>
+    <x:tableColumn id="7" name="Column_Name"/>
+    <x:tableColumn id="8" name="Schema1"/>
+    <x:tableColumn id="9" name="Table_name2"/>
+    <x:tableColumn id="10" name="Column_Name3"/>
+    <x:tableColumn id="11" name="Value"/>
+    <x:tableColumn id="12" name="Column_Name4"/>
+    <x:tableColumn id="13" name="Column_Name5"/>
+    <x:tableColumn id="14" name="Column_Name6"/>
+    <x:tableColumn id="15" name="Expected Result"/>
+    <x:tableColumn id="16" name="Expected Value"/>
+    <x:tableColumn id="17" name="Description"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -465,13 +483,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N3"/>
+  <x:dimension ref="A1:Q3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:14">
+    <x:row r="1" spans="1:17">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -514,87 +532,108 @@
       <x:c r="N1" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:14">
+    <x:row r="2" spans="1:17">
       <x:c r="A2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:17">
+      <x:c r="A3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="I3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:14">
-      <x:c r="A3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
